--- a/data/HSE资源费用月表_2025年2月.xlsx
+++ b/data/HSE资源费用月表_2025年2月.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\A_Work_Station\Work_Platform\A_Plan\Agent\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B12075D-A809-45C3-8CE4-225582F092B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0016C33-795F-49B5-9EF3-C93AA76750AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A5274996-8572-49EB-8DD6-A29D4D905DA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{3B44B195-919F-4C5C-8CAA-CDF2DABFCB60}"/>
   </bookViews>
   <sheets>
-    <sheet name="费用统计" sheetId="1" r:id="rId1"/>
+    <sheet name="费用统计" sheetId="4" r:id="rId1"/>
+    <sheet name="集群统计" sheetId="3" r:id="rId2"/>
+    <sheet name="slot使用情况统计" sheetId="2" r:id="rId3"/>
+    <sheet name="mem使用情况统计" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
   <si>
     <t>HSE团队名称</t>
   </si>
@@ -94,6 +97,9 @@
   </si>
   <si>
     <t>Platform</t>
+  </si>
+  <si>
+    <t>Impl-FE</t>
   </si>
   <si>
     <t>SIPI</t>
@@ -111,6 +117,99 @@
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSE集群名称</t>
+  </si>
+  <si>
+    <t>总节点数（台）</t>
+  </si>
+  <si>
+    <t>hse_front_end_hosts</t>
+  </si>
+  <si>
+    <t>middle_end_hosts</t>
+  </si>
+  <si>
+    <t>back_end_hosts</t>
+  </si>
+  <si>
+    <t>middle_end_8_hosts</t>
+  </si>
+  <si>
+    <t>pdfct_hosts</t>
+  </si>
+  <si>
+    <t>pdpv_hosts</t>
+  </si>
+  <si>
+    <t>pdpwr_hosts</t>
+  </si>
+  <si>
+    <t>pdxlarge_hosts</t>
+  </si>
+  <si>
+    <t>slot利用率Week1</t>
+  </si>
+  <si>
+    <t>slot利用率Week2</t>
+  </si>
+  <si>
+    <t>slot利用率Week3</t>
+  </si>
+  <si>
+    <t>slot利用率Week4</t>
+  </si>
+  <si>
+    <t>slot利用率Week5</t>
+  </si>
+  <si>
+    <t>slot申请占比Week1</t>
+  </si>
+  <si>
+    <t>slot申请占比Week2</t>
+  </si>
+  <si>
+    <t>slot申请占比Week3</t>
+  </si>
+  <si>
+    <t>slot申请占比Week4</t>
+  </si>
+  <si>
+    <t>slot申请占比Week5</t>
+  </si>
+  <si>
+    <t>mem利用率Week1</t>
+  </si>
+  <si>
+    <t>mem利用率Week2</t>
+  </si>
+  <si>
+    <t>mem利用率Week3</t>
+  </si>
+  <si>
+    <t>mem利用率Week4</t>
+  </si>
+  <si>
+    <t>mem利用率Week5</t>
+  </si>
+  <si>
+    <t>mem申请占比Week1</t>
+  </si>
+  <si>
+    <t>mem申请占比Week2</t>
+  </si>
+  <si>
+    <t>mem申请占比Week3</t>
+  </si>
+  <si>
+    <t>mem申请占比Week4</t>
+  </si>
+  <si>
+    <t>mem申请占比Week5</t>
+  </si>
+  <si>
+    <t>dfx</t>
   </si>
 </sst>
 </file>
@@ -473,7 +572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFE3E43-4A41-4643-B452-C6A6C56C1355}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4274D97-DF3B-4380-B57C-347E4597466E}">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -788,7 +887,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>8.1633999999999993</v>
@@ -797,7 +896,7 @@
         <v>4.3868389533697254</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <v>12.550238953369725</v>
@@ -805,7 +904,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>0.99960000000000004</v>
@@ -822,7 +921,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>0.66639999999999999</v>
@@ -839,7 +938,7 @@
     </row>
     <row r="22" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>28.180389999999996</v>
@@ -859,4 +958,783 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDBA8CAA-ED1D-43C2-A691-F06EEBE83991}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF5F271-EE60-4E52-B1A1-8EFF7E155090}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>0.84652482269503548</v>
+      </c>
+      <c r="C2">
+        <v>0.8947588652482269</v>
+      </c>
+      <c r="D2">
+        <v>0.79490825688073374</v>
+      </c>
+      <c r="E2">
+        <v>0.67515596330275229</v>
+      </c>
+      <c r="F2">
+        <v>0.44962857142857143</v>
+      </c>
+      <c r="G2">
+        <v>0.71682765632943568</v>
+      </c>
+      <c r="H2">
+        <v>0.72553257178141406</v>
+      </c>
+      <c r="I2">
+        <v>0.62136586478166689</v>
+      </c>
+      <c r="J2">
+        <v>0.68631154766402214</v>
+      </c>
+      <c r="K2">
+        <v>0.23819245950728188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0.31057142857142855</v>
+      </c>
+      <c r="C3">
+        <v>0.37528571428571428</v>
+      </c>
+      <c r="D3">
+        <v>0.21385714285714283</v>
+      </c>
+      <c r="E3">
+        <v>0.16928571428571429</v>
+      </c>
+      <c r="F3">
+        <v>0.19128571428571425</v>
+      </c>
+      <c r="G3">
+        <v>3.5587188612099648E-2</v>
+      </c>
+      <c r="H3">
+        <v>3.6019347535247506E-2</v>
+      </c>
+      <c r="I3">
+        <v>3.9904229848363927E-2</v>
+      </c>
+      <c r="J3">
+        <v>4.4075053519707842E-2</v>
+      </c>
+      <c r="K3">
+        <v>4.763849190145638E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0.78100000000000014</v>
+      </c>
+      <c r="C4">
+        <v>0.59275</v>
+      </c>
+      <c r="D4">
+        <v>0.73911428571428572</v>
+      </c>
+      <c r="E4">
+        <v>0.86897142857142851</v>
+      </c>
+      <c r="F4">
+        <v>0.78358571428571422</v>
+      </c>
+      <c r="G4">
+        <v>5.0838840874428059E-3</v>
+      </c>
+      <c r="H4">
+        <v>1.0291242152927859E-2</v>
+      </c>
+      <c r="I4">
+        <v>1.9952114924181964E-2</v>
+      </c>
+      <c r="J4">
+        <v>2.2037526759853921E-2</v>
+      </c>
+      <c r="K4">
+        <v>2.381924595072819E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0.23573333333333332</v>
+      </c>
+      <c r="C5">
+        <v>0.32229090909090907</v>
+      </c>
+      <c r="D5">
+        <v>0.74198181818181819</v>
+      </c>
+      <c r="E5">
+        <v>0.34870000000000007</v>
+      </c>
+      <c r="F5">
+        <v>0.193</v>
+      </c>
+      <c r="G5">
+        <v>2.2877478393492627E-2</v>
+      </c>
+      <c r="H5">
+        <v>5.660183184110322E-2</v>
+      </c>
+      <c r="I5">
+        <v>6.2706646904571881E-2</v>
+      </c>
+      <c r="J5">
+        <v>2.5185744868404483E-2</v>
+      </c>
+      <c r="K5">
+        <v>2.7221995372260787E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0.40595744680851065</v>
+      </c>
+      <c r="C6">
+        <v>0.34329078014184394</v>
+      </c>
+      <c r="D6">
+        <v>0.32614893617021279</v>
+      </c>
+      <c r="E6">
+        <v>0.27728368794326241</v>
+      </c>
+      <c r="F6">
+        <v>0.28041843971631208</v>
+      </c>
+      <c r="G6">
+        <v>2.8673106253177427E-2</v>
+      </c>
+      <c r="H6">
+        <v>2.9021302871256562E-2</v>
+      </c>
+      <c r="I6">
+        <v>3.2151408049253219E-2</v>
+      </c>
+      <c r="J6">
+        <v>3.5511900264450322E-2</v>
+      </c>
+      <c r="K6">
+        <v>3.8383013474887706E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.33629268292682929</v>
+      </c>
+      <c r="D7">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.62522695035460996</v>
+      </c>
+      <c r="F7">
+        <v>0.59868794326241137</v>
+      </c>
+      <c r="G7">
+        <v>3.2536858159633959E-3</v>
+      </c>
+      <c r="H7">
+        <v>8.4388185654008432E-3</v>
+      </c>
+      <c r="I7">
+        <v>3.6483867289932733E-3</v>
+      </c>
+      <c r="J7">
+        <v>3.5511900264450322E-2</v>
+      </c>
+      <c r="K7">
+        <v>3.8383013474887706E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0.14175000000000001</v>
+      </c>
+      <c r="C8">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="D8">
+        <v>0.1245</v>
+      </c>
+      <c r="E8">
+        <v>9.6250000000000002E-2</v>
+      </c>
+      <c r="F8">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="G8">
+        <v>2.0335536349771224E-2</v>
+      </c>
+      <c r="H8">
+        <v>2.0582484305855717E-2</v>
+      </c>
+      <c r="I8">
+        <v>2.2802417056207957E-2</v>
+      </c>
+      <c r="J8">
+        <v>2.5185744868404483E-2</v>
+      </c>
+      <c r="K8">
+        <v>2.7221995372260787E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>0.3462745098039216</v>
+      </c>
+      <c r="C9">
+        <v>0.31496259351620942</v>
+      </c>
+      <c r="D9">
+        <v>0.50847880299251869</v>
+      </c>
+      <c r="E9">
+        <v>0.46508728179551123</v>
+      </c>
+      <c r="F9">
+        <v>0.33965087281795509</v>
+      </c>
+      <c r="G9">
+        <v>1.2963904422979155E-2</v>
+      </c>
+      <c r="H9">
+        <v>2.0633940516620358E-2</v>
+      </c>
+      <c r="I9">
+        <v>2.2859423098848478E-2</v>
+      </c>
+      <c r="J9">
+        <v>2.5248709230575494E-2</v>
+      </c>
+      <c r="K9">
+        <v>2.7290050360691438E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0.1653</v>
+      </c>
+      <c r="C10">
+        <v>0.1489</v>
+      </c>
+      <c r="D10">
+        <v>0.19260000000000002</v>
+      </c>
+      <c r="E10">
+        <v>0.1401</v>
+      </c>
+      <c r="F10">
+        <v>0.12890000000000001</v>
+      </c>
+      <c r="G10">
+        <v>2.541942043721403E-2</v>
+      </c>
+      <c r="H10">
+        <v>2.5728105382319646E-2</v>
+      </c>
+      <c r="I10">
+        <v>2.8503021320259947E-2</v>
+      </c>
+      <c r="J10">
+        <v>3.1482181085505601E-2</v>
+      </c>
+      <c r="K10">
+        <v>3.4027494215325985E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.32392805755395687</v>
+      </c>
+      <c r="C11">
+        <v>0.27154676258992805</v>
+      </c>
+      <c r="D11">
+        <v>0.2683381294964029</v>
+      </c>
+      <c r="E11">
+        <v>0.16937410071942446</v>
+      </c>
+      <c r="F11">
+        <v>0.12361870503597122</v>
+      </c>
+      <c r="G11">
+        <v>2.8266395526182004E-2</v>
+      </c>
+      <c r="H11">
+        <v>2.8609653185139448E-2</v>
+      </c>
+      <c r="I11">
+        <v>3.1695359708129062E-2</v>
+      </c>
+      <c r="J11">
+        <v>3.500818536708223E-2</v>
+      </c>
+      <c r="K11">
+        <v>3.7838573567442496E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>0.254</v>
+      </c>
+      <c r="C12">
+        <v>0.254</v>
+      </c>
+      <c r="D12">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="E12">
+        <v>0.19699999999999998</v>
+      </c>
+      <c r="F12">
+        <v>0.23799999999999996</v>
+      </c>
+      <c r="G12">
+        <v>5.0838840874428059E-3</v>
+      </c>
+      <c r="H12">
+        <v>5.1456210764639293E-3</v>
+      </c>
+      <c r="I12">
+        <v>5.7006042640519892E-3</v>
+      </c>
+      <c r="J12">
+        <v>6.2964362171011208E-3</v>
+      </c>
+      <c r="K12">
+        <v>6.8054988430651967E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="C13">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D13">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E13">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="F13">
+        <v>5.4000000000000006E-2</v>
+      </c>
+      <c r="G13">
+        <v>5.0838840874428059E-3</v>
+      </c>
+      <c r="H13">
+        <v>5.1456210764639293E-3</v>
+      </c>
+      <c r="I13">
+        <v>5.7006042640519892E-3</v>
+      </c>
+      <c r="J13">
+        <v>6.2964362171011208E-3</v>
+      </c>
+      <c r="K13">
+        <v>6.8054988430651967E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5895EA-9D50-4DDB-B6C4-E19253ACB57D}">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2">
+        <v>0.28675</v>
+      </c>
+      <c r="C2">
+        <v>0.27725</v>
+      </c>
+      <c r="D2">
+        <v>0.21775</v>
+      </c>
+      <c r="E2">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="F2">
+        <v>0.30431645569620253</v>
+      </c>
+      <c r="G2">
+        <v>0.22598870056497175</v>
+      </c>
+      <c r="H2">
+        <v>0.21080368906455862</v>
+      </c>
+      <c r="I2">
+        <v>0.21276595744680851</v>
+      </c>
+      <c r="J2">
+        <v>0.19536019536019536</v>
+      </c>
+      <c r="K2">
+        <v>0.36915887850467288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="C3">
+        <v>8.2000000000000017E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.38</v>
+      </c>
+      <c r="F3">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0.2824858757062147</v>
+      </c>
+      <c r="H3">
+        <v>0.65876152832674562</v>
+      </c>
+      <c r="I3">
+        <v>0.66489361702127658</v>
+      </c>
+      <c r="J3">
+        <v>0.61050061050061044</v>
+      </c>
+      <c r="K3">
+        <v>0.37383177570093457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>4.6000000000000006E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.17699999999999996</v>
+      </c>
+      <c r="D4">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="E4">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="F4">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="G4">
+        <v>8.4745762711864417E-2</v>
+      </c>
+      <c r="H4">
+        <v>7.9051383399209474E-2</v>
+      </c>
+      <c r="I4">
+        <v>7.9787234042553182E-2</v>
+      </c>
+      <c r="J4">
+        <v>7.326007326007325E-2</v>
+      </c>
+      <c r="K4">
+        <v>5.6074766355140186E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C5">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.06</v>
+      </c>
+      <c r="E5">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G5">
+        <v>4.2372881355932208E-2</v>
+      </c>
+      <c r="H5">
+        <v>3.9525691699604737E-2</v>
+      </c>
+      <c r="I5">
+        <v>3.9893617021276591E-2</v>
+      </c>
+      <c r="J5">
+        <v>3.6630036630036625E-2</v>
+      </c>
+      <c r="K5">
+        <v>2.8037383177570093E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D6">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.252</v>
+      </c>
+      <c r="F6">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="G6">
+        <v>5.6497175141242938E-2</v>
+      </c>
+      <c r="H6">
+        <v>5.2700922266139656E-2</v>
+      </c>
+      <c r="I6">
+        <v>5.3191489361702128E-2</v>
+      </c>
+      <c r="J6">
+        <v>4.884004884004884E-2</v>
+      </c>
+      <c r="K6">
+        <v>3.7383177570093455E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>